--- a/results/I3_N5_M2_T15_C200_DepCentral_s2_mean_res.xlsx
+++ b/results/I3_N5_M2_T15_C200_DepCentral_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.5743650778448</v>
+        <v>162.714365082849</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0409998893737793</v>
+        <v>0.03700017929077148</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.579999994995767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.28</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.29375422704618</v>
+        <v>11.48326856299774</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>37.34699999993509</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>152.6189999997931</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>38.14099999999875</v>
+        <v>128.8</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>145.9320000000098</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>200.1579999996405</v>
+        <v>183.8</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>145.9320000000098</v>
+        <v>183.8</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>200.1579999995</v>
+        <v>128.8</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1579999994995767</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.726</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3">
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.601999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
@@ -1228,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,17 +1253,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
